--- a/2016奖学金打分汇总表.xlsx
+++ b/2016奖学金打分汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6012" tabRatio="720" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6015" tabRatio="720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="24" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">综合优秀!$A$2:$V$26</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="143">
   <si>
     <t>班名</t>
   </si>
@@ -582,16 +582,20 @@
     <t>学号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>张亦弛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,14 +740,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -923,7 +919,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1089,9 +1085,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1100,9 +1093,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1210,7 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1299,74 +1289,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1379,14 +1301,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1674,28 +1596,28 @@
       <selection pane="bottomRight" activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
-    <col min="11" max="21" width="8.6640625" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="6.375" customWidth="1"/>
+    <col min="11" max="21" width="8.625" customWidth="1"/>
+    <col min="22" max="22" width="8.625" hidden="1" customWidth="1"/>
     <col min="23" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="118" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12.125" customWidth="1"/>
+    <col min="32" max="32" width="14.625" style="116" customWidth="1"/>
+    <col min="33" max="33" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="13.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>140</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -1719,16 +1641,16 @@
       <c r="H1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="64" t="s">
         <v>27</v>
       </c>
       <c r="M1" s="34" t="s">
@@ -1788,14 +1710,14 @@
       <c r="AE1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="117" t="s">
+      <c r="AF1" s="115" t="s">
         <v>36</v>
       </c>
       <c r="AG1" s="24"/>
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
     </row>
-    <row r="2" spans="1:35" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="2" spans="1:35" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>134</v>
       </c>
@@ -1949,7 +1871,7 @@
       <c r="AF3" s="59"/>
       <c r="AG3" s="59"/>
     </row>
-    <row r="4" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="4" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>135</v>
       </c>
@@ -2107,7 +2029,7 @@
       <c r="AF5" s="59"/>
       <c r="AG5" s="59"/>
     </row>
-    <row r="6" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="6" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -2267,7 +2189,7 @@
       <c r="AF7" s="59"/>
       <c r="AG7" s="59"/>
     </row>
-    <row r="8" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="8" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
@@ -2346,7 +2268,7 @@
       <c r="AF8" s="59"/>
       <c r="AG8" s="59"/>
     </row>
-    <row r="9" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="9" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
@@ -2425,7 +2347,7 @@
       <c r="AF9" s="59"/>
       <c r="AG9" s="59"/>
     </row>
-    <row r="10" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="10" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>135</v>
       </c>
@@ -2585,7 +2507,7 @@
       <c r="AF11" s="59"/>
       <c r="AG11" s="59"/>
     </row>
-    <row r="12" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="12" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -2664,7 +2586,7 @@
       <c r="AF12" s="59"/>
       <c r="AG12" s="59"/>
     </row>
-    <row r="13" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="13" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>135</v>
       </c>
@@ -2743,7 +2665,7 @@
       <c r="AF13" s="59"/>
       <c r="AG13" s="59"/>
     </row>
-    <row r="14" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="14" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>135</v>
       </c>
@@ -2824,7 +2746,7 @@
       <c r="AF14" s="59"/>
       <c r="AG14" s="59"/>
     </row>
-    <row r="15" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="15" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>135</v>
       </c>
@@ -2905,7 +2827,7 @@
       <c r="AF15" s="59"/>
       <c r="AG15" s="59"/>
     </row>
-    <row r="16" spans="1:35" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="16" spans="1:35" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>135</v>
       </c>
@@ -3063,7 +2985,7 @@
       <c r="AF17" s="59"/>
       <c r="AG17" s="59"/>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="18" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>135</v>
       </c>
@@ -3148,7 +3070,7 @@
       </c>
       <c r="AG18" s="59"/>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="19" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>135</v>
       </c>
@@ -3304,7 +3226,7 @@
       <c r="AF20" s="59"/>
       <c r="AG20" s="59"/>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="21" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>135</v>
       </c>
@@ -3383,7 +3305,7 @@
       <c r="AF21" s="59"/>
       <c r="AG21" s="59"/>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="22" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>135</v>
       </c>
@@ -3462,7 +3384,7 @@
       <c r="AF22" s="59"/>
       <c r="AG22" s="59"/>
     </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="23" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>135</v>
       </c>
@@ -3542,7 +3464,7 @@
       </c>
       <c r="AG23" s="59"/>
     </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="24" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>135</v>
       </c>
@@ -3701,7 +3623,7 @@
       </c>
       <c r="AG25" s="59"/>
     </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="26" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>135</v>
       </c>
@@ -3782,7 +3704,7 @@
       <c r="AF26" s="59"/>
       <c r="AG26" s="59"/>
     </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="27" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>136</v>
       </c>
@@ -3859,7 +3781,7 @@
       <c r="AF27" s="59"/>
       <c r="AG27" s="59"/>
     </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="28" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>136</v>
       </c>
@@ -3938,7 +3860,7 @@
       <c r="AF28" s="59"/>
       <c r="AG28" s="59"/>
     </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="29" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>136</v>
       </c>
@@ -4019,7 +3941,7 @@
       <c r="AF29" s="59"/>
       <c r="AG29" s="59"/>
     </row>
-    <row r="30" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="30" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>136</v>
       </c>
@@ -4102,7 +4024,7 @@
       <c r="AF30" s="59"/>
       <c r="AG30" s="59"/>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="31" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>136</v>
       </c>
@@ -4185,7 +4107,7 @@
       </c>
       <c r="AG31" s="59"/>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="32" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>136</v>
       </c>
@@ -4268,7 +4190,7 @@
       <c r="AF32" s="59"/>
       <c r="AG32" s="59"/>
     </row>
-    <row r="33" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="33" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>136</v>
       </c>
@@ -4345,7 +4267,7 @@
       <c r="AF33" s="59"/>
       <c r="AG33" s="59"/>
     </row>
-    <row r="34" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="34" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>136</v>
       </c>
@@ -4426,7 +4348,7 @@
       <c r="AF34" s="59"/>
       <c r="AG34" s="59"/>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="35" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
@@ -4499,12 +4421,12 @@
       <c r="AE35" s="6">
         <v>4000</v>
       </c>
-      <c r="AF35" s="117" t="s">
+      <c r="AF35" s="115" t="s">
         <v>130</v>
       </c>
       <c r="AG35" s="59"/>
     </row>
-    <row r="36" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="36" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>136</v>
       </c>
@@ -4587,7 +4509,7 @@
       <c r="AF36" s="59"/>
       <c r="AG36" s="59"/>
     </row>
-    <row r="37" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="37" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>136</v>
       </c>
@@ -4666,7 +4588,7 @@
       <c r="AF37" s="59"/>
       <c r="AG37" s="59"/>
     </row>
-    <row r="38" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="38" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
@@ -4743,7 +4665,7 @@
       <c r="AF38" s="59"/>
       <c r="AG38" s="59"/>
     </row>
-    <row r="39" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="39" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>136</v>
       </c>
@@ -4824,7 +4746,7 @@
       <c r="AF39" s="59"/>
       <c r="AG39" s="59"/>
     </row>
-    <row r="40" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="40" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>136</v>
       </c>
@@ -4981,7 +4903,7 @@
       </c>
       <c r="AG41" s="59"/>
     </row>
-    <row r="42" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="42" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>136</v>
       </c>
@@ -5066,7 +4988,7 @@
       </c>
       <c r="AG42" s="59"/>
     </row>
-    <row r="43" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="43" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>136</v>
       </c>
@@ -5145,7 +5067,7 @@
       <c r="AF43" s="59"/>
       <c r="AG43" s="59"/>
     </row>
-    <row r="44" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="44" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>136</v>
       </c>
@@ -5226,7 +5148,7 @@
       <c r="AF44" s="59"/>
       <c r="AG44" s="59"/>
     </row>
-    <row r="45" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="45" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>136</v>
       </c>
@@ -5309,7 +5231,7 @@
       <c r="AF45" s="59"/>
       <c r="AG45" s="59"/>
     </row>
-    <row r="46" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="46" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>136</v>
       </c>
@@ -5394,7 +5316,7 @@
       </c>
       <c r="AG46" s="59"/>
     </row>
-    <row r="47" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="47" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>136</v>
       </c>
@@ -5477,7 +5399,7 @@
       <c r="AF47" s="59"/>
       <c r="AG47" s="59"/>
     </row>
-    <row r="48" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="48" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>136</v>
       </c>
@@ -5556,7 +5478,7 @@
       <c r="AF48" s="59"/>
       <c r="AG48" s="59"/>
     </row>
-    <row r="49" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="49" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>136</v>
       </c>
@@ -5713,7 +5635,7 @@
       </c>
       <c r="AG50" s="59"/>
     </row>
-    <row r="51" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="51" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>136</v>
       </c>
@@ -5790,7 +5712,7 @@
       <c r="AF51" s="59"/>
       <c r="AG51" s="59"/>
     </row>
-    <row r="52" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="52" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>136</v>
       </c>
@@ -5869,7 +5791,7 @@
       <c r="AF52" s="59"/>
       <c r="AG52" s="59"/>
     </row>
-    <row r="53" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="53" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>136</v>
       </c>
@@ -5952,7 +5874,7 @@
       <c r="AF53" s="59"/>
       <c r="AG53" s="59"/>
     </row>
-    <row r="54" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="54" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>136</v>
       </c>
@@ -6031,7 +5953,7 @@
       <c r="AF54" s="59"/>
       <c r="AG54" s="59"/>
     </row>
-    <row r="55" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="55" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>136</v>
       </c>
@@ -6108,7 +6030,7 @@
       <c r="AF55" s="59"/>
       <c r="AG55" s="59"/>
     </row>
-    <row r="56" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="56" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>136</v>
       </c>
@@ -6266,7 +6188,7 @@
       <c r="AF57" s="59"/>
       <c r="AG57" s="59"/>
     </row>
-    <row r="58" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="58" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>136</v>
       </c>
@@ -6353,7 +6275,7 @@
       </c>
       <c r="AG58" s="59"/>
     </row>
-    <row r="59" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="59" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>136</v>
       </c>
@@ -6434,7 +6356,7 @@
       <c r="AF59" s="59"/>
       <c r="AG59" s="59"/>
     </row>
-    <row r="60" spans="1:33" s="1" customFormat="1">
+    <row r="60" spans="1:33" s="1" customFormat="1" ht="14.25">
       <c r="A60" s="3" t="s">
         <v>137</v>
       </c>
@@ -6517,7 +6439,7 @@
       <c r="AF60" s="59"/>
       <c r="AG60" s="59"/>
     </row>
-    <row r="61" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="61" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>137</v>
       </c>
@@ -6598,7 +6520,7 @@
       <c r="AF61" s="59"/>
       <c r="AG61" s="59"/>
     </row>
-    <row r="62" spans="1:33" s="1" customFormat="1">
+    <row r="62" spans="1:33" s="1" customFormat="1" ht="14.25">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -6681,7 +6603,7 @@
       <c r="AF62" s="59"/>
       <c r="AG62" s="59"/>
     </row>
-    <row r="63" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="63" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>137</v>
       </c>
@@ -6758,7 +6680,7 @@
       <c r="AF63" s="59"/>
       <c r="AG63" s="59"/>
     </row>
-    <row r="64" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="64" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>137</v>
       </c>
@@ -6839,7 +6761,7 @@
       <c r="AF64" s="59"/>
       <c r="AG64" s="59"/>
     </row>
-    <row r="65" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="65" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>137</v>
       </c>
@@ -6916,7 +6838,7 @@
       <c r="AF65" s="59"/>
       <c r="AG65" s="59"/>
     </row>
-    <row r="66" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="66" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>137</v>
       </c>
@@ -6993,7 +6915,7 @@
       <c r="AF66" s="59"/>
       <c r="AG66" s="59"/>
     </row>
-    <row r="67" spans="1:33" s="1" customFormat="1">
+    <row r="67" spans="1:33" s="1" customFormat="1" ht="14.25">
       <c r="A67" s="3" t="s">
         <v>137</v>
       </c>
@@ -7076,7 +6998,7 @@
       <c r="AF67" s="59"/>
       <c r="AG67" s="59"/>
     </row>
-    <row r="68" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="68" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>137</v>
       </c>
@@ -7155,7 +7077,7 @@
       <c r="AF68" s="59"/>
       <c r="AG68" s="59"/>
     </row>
-    <row r="69" spans="1:33" s="1" customFormat="1">
+    <row r="69" spans="1:33" s="1" customFormat="1" ht="14.25">
       <c r="A69" s="3" t="s">
         <v>137</v>
       </c>
@@ -7234,7 +7156,7 @@
       <c r="AF69" s="59"/>
       <c r="AG69" s="59"/>
     </row>
-    <row r="70" spans="1:33" s="1" customFormat="1">
+    <row r="70" spans="1:33" s="1" customFormat="1" ht="14.25">
       <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
@@ -7317,7 +7239,7 @@
       <c r="AF70" s="59"/>
       <c r="AG70" s="59"/>
     </row>
-    <row r="71" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="71" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>137</v>
       </c>
@@ -7399,7 +7321,7 @@
       </c>
       <c r="AG71" s="59"/>
     </row>
-    <row r="72" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="72" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>137</v>
       </c>
@@ -7480,7 +7402,7 @@
       <c r="AF72" s="59"/>
       <c r="AG72" s="59"/>
     </row>
-    <row r="73" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="73" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>137</v>
       </c>
@@ -7561,7 +7483,7 @@
       <c r="AF73" s="59"/>
       <c r="AG73" s="59"/>
     </row>
-    <row r="74" spans="1:33" s="1" customFormat="1">
+    <row r="74" spans="1:33" s="1" customFormat="1" ht="14.25">
       <c r="A74" s="3" t="s">
         <v>137</v>
       </c>
@@ -7638,7 +7560,7 @@
       <c r="AF74" s="59"/>
       <c r="AG74" s="59"/>
     </row>
-    <row r="75" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="75" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>137</v>
       </c>
@@ -7718,7 +7640,7 @@
       </c>
       <c r="AG75" s="59"/>
     </row>
-    <row r="76" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="76" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
@@ -7801,7 +7723,7 @@
       <c r="AF76" s="59"/>
       <c r="AG76" s="59"/>
     </row>
-    <row r="77" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="77" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>137</v>
       </c>
@@ -7884,7 +7806,7 @@
       <c r="AF77" s="59"/>
       <c r="AG77" s="59"/>
     </row>
-    <row r="78" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="78" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>137</v>
       </c>
@@ -7965,7 +7887,7 @@
       <c r="AF78" s="59"/>
       <c r="AG78" s="59"/>
     </row>
-    <row r="79" spans="1:33" s="1" customFormat="1">
+    <row r="79" spans="1:33" s="1" customFormat="1" ht="14.25">
       <c r="A79" s="3" t="s">
         <v>137</v>
       </c>
@@ -8049,7 +7971,7 @@
       </c>
       <c r="AG79" s="59"/>
     </row>
-    <row r="80" spans="1:33" s="1" customFormat="1">
+    <row r="80" spans="1:33" s="1" customFormat="1" ht="14.25">
       <c r="A80" s="3" t="s">
         <v>137</v>
       </c>
@@ -8128,7 +8050,7 @@
       <c r="AF80" s="59"/>
       <c r="AG80" s="59"/>
     </row>
-    <row r="81" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="81" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>137</v>
       </c>
@@ -8211,7 +8133,7 @@
       <c r="AF81" s="59"/>
       <c r="AG81" s="59"/>
     </row>
-    <row r="82" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="82" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>137</v>
       </c>
@@ -8292,7 +8214,7 @@
       <c r="AF82" s="59"/>
       <c r="AG82" s="59"/>
     </row>
-    <row r="83" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="83" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>137</v>
       </c>
@@ -8373,7 +8295,7 @@
       <c r="AF83" s="59"/>
       <c r="AG83" s="59"/>
     </row>
-    <row r="84" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="84" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>138</v>
       </c>
@@ -8454,7 +8376,7 @@
       <c r="AF84" s="59"/>
       <c r="AG84" s="59"/>
     </row>
-    <row r="85" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="85" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A85" s="13" t="s">
         <v>139</v>
       </c>
@@ -8521,7 +8443,7 @@
       <c r="AF85" s="59"/>
       <c r="AG85" s="59"/>
     </row>
-    <row r="86" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="86" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
@@ -8556,7 +8478,7 @@
       <c r="AF86" s="59"/>
       <c r="AG86" s="59"/>
     </row>
-    <row r="87" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="87" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
@@ -8591,7 +8513,7 @@
       <c r="AF87" s="59"/>
       <c r="AG87" s="59"/>
     </row>
-    <row r="88" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="88" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
@@ -8626,7 +8548,7 @@
       <c r="AF88" s="59"/>
       <c r="AG88" s="59"/>
     </row>
-    <row r="89" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="89" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -8661,7 +8583,7 @@
       <c r="AF89" s="59"/>
       <c r="AG89" s="59"/>
     </row>
-    <row r="90" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="90" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -8696,7 +8618,7 @@
       <c r="AF90" s="59"/>
       <c r="AG90" s="59"/>
     </row>
-    <row r="91" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="91" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -8731,7 +8653,7 @@
       <c r="AF91" s="59"/>
       <c r="AG91" s="59"/>
     </row>
-    <row r="92" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="92" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A92" s="16"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
@@ -8766,7 +8688,7 @@
       <c r="AF92" s="59"/>
       <c r="AG92" s="59"/>
     </row>
-    <row r="93" spans="1:33" s="1" customFormat="1" ht="14.4" customHeight="1">
+    <row r="93" spans="1:33" s="1" customFormat="1" ht="14.45" customHeight="1">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -8921,31 +8843,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="78.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="78.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:15" ht="20.25">
+      <c r="A1" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="43.2">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="27">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
@@ -8975,81 +8897,81 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="73">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="71">
         <v>10</v>
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="73">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="14.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="71">
         <v>8</v>
       </c>
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="73">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="71">
         <v>6</v>
       </c>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="73">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="71">
         <v>6</v>
       </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="73">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="71">
         <v>6</v>
       </c>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="73">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="71">
         <v>6</v>
       </c>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="73">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="71">
         <v>6</v>
       </c>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="88">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="86">
         <v>6</v>
       </c>
       <c r="F10" s="40"/>
@@ -9935,76 +9857,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" customWidth="1"/>
+    <col min="13" max="13" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.399999999999999">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:22" ht="20.25">
+      <c r="A1" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-    </row>
-    <row r="2" spans="1:22" ht="86.4">
-      <c r="A2" s="65" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+    </row>
+    <row r="2" spans="1:22" ht="67.5">
+      <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="65" t="s">
         <v>115</v>
       </c>
       <c r="O2" s="56" t="s">
@@ -10033,7 +9955,9 @@
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69" t="s">
+        <v>98</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -10101,7 +10025,9 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="64"/>
+      <c r="A4" s="69" t="s">
+        <v>64</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -10169,7 +10095,9 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="3"/>
+      <c r="A5" s="69" t="s">
+        <v>88</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -10238,7 +10166,9 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="64"/>
+      <c r="A6" s="69" t="s">
+        <v>86</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="7" t="s">
@@ -10306,7 +10236,9 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="3"/>
+      <c r="A7" s="69" t="s">
+        <v>99</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="7" t="s">
@@ -10330,7 +10262,7 @@
       <c r="J7" s="6">
         <v>5000</v>
       </c>
-      <c r="K7" s="116" t="str">
+      <c r="K7" s="114" t="str">
         <f>VLOOKUP(D7,汇总表!$A$2:$L$84,9,FALSE)</f>
         <v>否</v>
       </c>
@@ -10342,7 +10274,7 @@
         <f>VLOOKUP(D7,汇总表!$A$2:$L$84,11,FALSE)</f>
         <v>否</v>
       </c>
-      <c r="N7" s="116" t="str">
+      <c r="N7" s="114" t="str">
         <f>VLOOKUP(D7,汇总表!$A$2:$L$84,12,FALSE)</f>
         <v>否</v>
       </c>
@@ -10375,7 +10307,9 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="64"/>
+      <c r="A8" s="69" t="s">
+        <v>56</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7" t="s">
@@ -10444,7 +10378,9 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="3"/>
+      <c r="A9" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7" t="s">
@@ -10512,7 +10448,9 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69" t="s">
+        <v>83</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7" t="s">
@@ -10581,7 +10519,9 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="3"/>
+      <c r="A11" s="69" t="s">
+        <v>95</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7" t="s">
@@ -10609,7 +10549,7 @@
         <f>VLOOKUP(D11,汇总表!$A$2:$L$84,9,FALSE)</f>
         <v>否</v>
       </c>
-      <c r="L11" s="116" t="str">
+      <c r="L11" s="114" t="str">
         <f>VLOOKUP(D11,汇总表!$A$2:$L$84,10,FALSE)</f>
         <v>否</v>
       </c>
@@ -10651,7 +10591,9 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="3"/>
+      <c r="A12" s="69" t="s">
+        <v>65</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7" t="s">
@@ -10716,7 +10658,9 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="3"/>
+      <c r="A13" s="69" t="s">
+        <v>96</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="7" t="s">
@@ -10740,11 +10684,11 @@
       <c r="J13" s="6">
         <v>5000</v>
       </c>
-      <c r="K13" s="116" t="str">
+      <c r="K13" s="114" t="str">
         <f>VLOOKUP(D13,汇总表!$A$2:$L$84,9,FALSE)</f>
         <v>否</v>
       </c>
-      <c r="L13" s="116" t="str">
+      <c r="L13" s="114" t="str">
         <f>VLOOKUP(D13,汇总表!$A$2:$L$84,10,FALSE)</f>
         <v>否</v>
       </c>
@@ -10752,7 +10696,7 @@
         <f>VLOOKUP(D13,汇总表!$A$2:$L$84,11,FALSE)</f>
         <v>否</v>
       </c>
-      <c r="N13" s="116" t="str">
+      <c r="N13" s="114" t="str">
         <f>VLOOKUP(D13,汇总表!$A$2:$L$84,12,FALSE)</f>
         <v>否</v>
       </c>
@@ -10785,7 +10729,9 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="3"/>
+      <c r="A14" s="69" t="s">
+        <v>66</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7" t="s">
@@ -10850,7 +10796,9 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="3"/>
+      <c r="A15" s="69" t="s">
+        <v>69</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7" t="s">
@@ -10874,7 +10822,7 @@
         <f>VLOOKUP(D15,汇总表!$A$2:$L$84,9,FALSE)</f>
         <v>否</v>
       </c>
-      <c r="L15" s="116" t="str">
+      <c r="L15" s="114" t="str">
         <f>VLOOKUP(D15,汇总表!$A$2:$L$84,10,FALSE)</f>
         <v>否</v>
       </c>
@@ -10915,7 +10863,9 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="3"/>
+      <c r="A16" s="69" t="s">
+        <v>74</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7" t="s">
@@ -10979,7 +10929,9 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="3"/>
+      <c r="A17" s="69" t="s">
+        <v>75</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7" t="s">
@@ -11041,7 +10993,9 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="64"/>
+      <c r="A18" s="69" t="s">
+        <v>76</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
@@ -11065,7 +11019,7 @@
       <c r="J18" s="6">
         <v>8000</v>
       </c>
-      <c r="K18" s="116" t="str">
+      <c r="K18" s="114" t="str">
         <f>VLOOKUP(D18,汇总表!$A$2:$L$84,9,FALSE)</f>
         <v>否</v>
       </c>
@@ -11109,7 +11063,9 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69" t="s">
+        <v>78</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -11178,7 +11134,9 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="64"/>
+      <c r="A20" s="69" t="s">
+        <v>80</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
@@ -11247,7 +11205,9 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="3"/>
+      <c r="A21" s="69" t="s">
+        <v>84</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -11269,7 +11229,7 @@
         <v>115</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="116" t="str">
+      <c r="K21" s="114" t="str">
         <f>VLOOKUP(D21,汇总表!$A$2:$L$84,9,FALSE)</f>
         <v>否</v>
       </c>
@@ -11281,7 +11241,7 @@
         <f>VLOOKUP(D21,汇总表!$A$2:$L$84,11,FALSE)</f>
         <v>否</v>
       </c>
-      <c r="N21" s="116" t="str">
+      <c r="N21" s="114" t="str">
         <f>VLOOKUP(D21,汇总表!$A$2:$L$84,12,FALSE)</f>
         <v>否</v>
       </c>
@@ -11313,7 +11273,9 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="3"/>
+      <c r="A22" s="69" t="s">
+        <v>85</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
@@ -11337,7 +11299,7 @@
       <c r="J22" s="6">
         <v>5000</v>
       </c>
-      <c r="K22" s="116" t="str">
+      <c r="K22" s="114" t="str">
         <f>VLOOKUP(D22,汇总表!$A$2:$L$84,9,FALSE)</f>
         <v>否</v>
       </c>
@@ -11349,7 +11311,7 @@
         <f>VLOOKUP(D22,汇总表!$A$2:$L$84,11,FALSE)</f>
         <v>否</v>
       </c>
-      <c r="N22" s="116" t="str">
+      <c r="N22" s="114" t="str">
         <f>VLOOKUP(D22,汇总表!$A$2:$L$84,12,FALSE)</f>
         <v>否</v>
       </c>
@@ -11381,7 +11343,9 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="3"/>
+      <c r="A23" s="69" t="s">
+        <v>89</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
@@ -11446,7 +11410,9 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="3"/>
+      <c r="A24" s="69" t="s">
+        <v>90</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -11478,7 +11444,7 @@
         <f>VLOOKUP(D24,汇总表!$A$2:$L$84,11,FALSE)</f>
         <v>否</v>
       </c>
-      <c r="N24" s="116" t="str">
+      <c r="N24" s="114" t="str">
         <f>VLOOKUP(D24,汇总表!$A$2:$L$84,12,FALSE)</f>
         <v>否</v>
       </c>
@@ -11509,7 +11475,9 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="3"/>
+      <c r="A25" s="69" t="s">
+        <v>92</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
@@ -11574,7 +11542,9 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69" t="s">
+        <v>60</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
@@ -11642,7 +11612,9 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="3"/>
+      <c r="A27" s="69" t="s">
+        <v>94</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="7"/>
@@ -11652,13 +11624,15 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="3"/>
+      <c r="A28" s="69" t="s">
+        <v>59</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="7"/>
@@ -11668,13 +11642,15 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="3"/>
+      <c r="A29" s="69" t="s">
+        <v>97</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="7"/>
@@ -11684,10 +11660,10 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="3"/>
@@ -11700,10 +11676,10 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="3"/>
@@ -11716,10 +11692,10 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="3"/>
@@ -11732,10 +11708,10 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="3"/>
@@ -11748,10 +11724,10 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3"/>
@@ -11764,10 +11740,10 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3"/>
@@ -11780,10 +11756,10 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="3"/>
@@ -11796,10 +11772,10 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="3"/>
@@ -11812,10 +11788,10 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3"/>
@@ -11828,10 +11804,10 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="3"/>
@@ -11844,10 +11820,10 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="3"/>
@@ -11860,10 +11836,10 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="3"/>
@@ -11876,10 +11852,10 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="3"/>
@@ -11892,10 +11868,10 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="3"/>
@@ -11908,10 +11884,10 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="3"/>
@@ -11924,10 +11900,10 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="3"/>
@@ -11940,10 +11916,10 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3"/>
@@ -11956,10 +11932,10 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="3"/>
@@ -11972,10 +11948,10 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="3"/>
@@ -11988,10 +11964,10 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="3"/>
@@ -12004,10 +11980,10 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="3"/>
@@ -12020,10 +11996,10 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="3"/>
@@ -12036,10 +12012,10 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="3"/>
@@ -12052,10 +12028,10 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3"/>
@@ -12068,10 +12044,10 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="3"/>
@@ -12084,10 +12060,10 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
     </row>
     <row r="55" spans="1:14">
       <c r="E55" s="5"/>
@@ -12206,7 +12182,329 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D24:D29 A24:A29">
+  <conditionalFormatting sqref="D24:D29">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D41 A30:A41">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:D54">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -12218,19 +12516,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D41 A30:A41">
+  <conditionalFormatting sqref="D16">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:D54">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -12242,161 +12538,149 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3 D3">
+  <conditionalFormatting sqref="D17">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4 A4">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5 A5">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6 A6">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7 A7">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8 D8">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9 D9">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10 D10">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -12408,7 +12692,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D24">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -12418,7 +12702,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11 D11">
+  <conditionalFormatting sqref="D25">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -12430,7 +12714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D25">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -12440,7 +12724,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D26">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -12452,7 +12736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D26">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -12462,51 +12746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13 D13">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 A14">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15 D15">
+  <conditionalFormatting sqref="A3">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -12518,17 +12758,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="A4">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16 A16">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -12540,17 +12782,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="A6">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17 D17">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -12562,17 +12806,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="A8">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 D18">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -12584,17 +12830,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="A10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 D19">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -12606,17 +12854,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="A13">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20 D20">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -12628,17 +12878,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="A15">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21 D21">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -12650,17 +12902,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="A17">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22 D22">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -12672,17 +12926,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="A19">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23 D23">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -12694,17 +12950,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="A21">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A26">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -12716,7 +12974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="A23">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -12728,17 +12986,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="A24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12750,17 +13010,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="A26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12772,13 +13034,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="A28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -12793,32 +13069,32 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30:E52"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:10" ht="20.25">
+      <c r="A1" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="31.95" customHeight="1">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="31.9" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
@@ -12851,351 +13127,349 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="71" t="str">
-        <f t="shared" ref="C3:C34" si="0">LEFT(B3,2)</f>
+      <c r="C3" s="69" t="str">
+        <f t="shared" ref="C3:C29" si="0">LEFT(B3,2)</f>
         <v>工3</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="69">
         <v>2013010892</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="109">
         <v>92.8</v>
       </c>
-      <c r="F3" s="111">
-        <v>1</v>
-      </c>
-      <c r="G3" s="84">
-        <v>1</v>
-      </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="111">
+      <c r="F3" s="109">
+        <v>1</v>
+      </c>
+      <c r="G3" s="82">
+        <v>1</v>
+      </c>
+      <c r="H3" s="82"/>
+      <c r="I3" s="109">
         <v>10</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工4</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="72">
         <v>2013011646</v>
       </c>
-      <c r="E4" s="110">
+      <c r="E4" s="108">
         <v>94.8</v>
       </c>
-      <c r="F4" s="111">
-        <v>1</v>
-      </c>
-      <c r="G4" s="84">
-        <v>1</v>
-      </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="111">
+      <c r="F4" s="109">
+        <v>1</v>
+      </c>
+      <c r="G4" s="82">
+        <v>1</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="109">
         <v>10</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="71" t="str">
+      <c r="C5" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="69">
         <v>2015010848</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="109">
         <v>3.6</v>
       </c>
-      <c r="F5" s="111">
-        <v>1</v>
-      </c>
-      <c r="G5" s="84">
-        <v>1</v>
-      </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="111">
+      <c r="F5" s="109">
+        <v>1</v>
+      </c>
+      <c r="G5" s="82">
+        <v>1</v>
+      </c>
+      <c r="H5" s="110"/>
+      <c r="I5" s="109">
         <v>10</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="71" t="str">
+      <c r="C6" s="69" t="str">
         <f t="shared" si="0"/>
         <v>生6</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="69">
         <v>2015010813</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="109">
         <v>3.6</v>
       </c>
-      <c r="F6" s="111">
-        <v>1</v>
-      </c>
-      <c r="G6" s="84">
-        <v>1</v>
-      </c>
-      <c r="H6" s="112" t="s">
+      <c r="F6" s="109">
+        <v>1</v>
+      </c>
+      <c r="G6" s="82">
+        <v>1</v>
+      </c>
+      <c r="H6" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="109">
         <v>10</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="71" t="str">
+      <c r="C7" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工3</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="69">
         <v>2013010906</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="109">
         <v>91.2</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="109">
         <v>2</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="82">
         <v>2</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="111">
-        <v>8</v>
-      </c>
+      <c r="H7" s="82"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="71" t="str">
+      <c r="C8" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工4</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="72">
         <v>2014010902</v>
       </c>
-      <c r="E8" s="110">
+      <c r="E8" s="108">
         <v>94</v>
       </c>
-      <c r="F8" s="111">
-        <v>1</v>
-      </c>
-      <c r="G8" s="84">
+      <c r="F8" s="109">
+        <v>1</v>
+      </c>
+      <c r="G8" s="82">
         <v>2</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="111">
+      <c r="H8" s="82"/>
+      <c r="I8" s="109">
         <v>10</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="71" t="str">
+      <c r="C9" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="69">
         <v>2015010845</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="108">
         <v>3.5</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="109">
         <v>2</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="82">
         <v>2</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="111">
+      <c r="H9" s="82"/>
+      <c r="I9" s="109">
         <v>9</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="71" t="str">
+      <c r="C10" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="69">
         <v>2015010852</v>
       </c>
-      <c r="E10" s="111">
+      <c r="E10" s="109">
         <v>3.5</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="109">
         <v>2</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="82">
         <v>2</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="111">
+      <c r="H10" s="110"/>
+      <c r="I10" s="109">
         <v>9</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="71" t="str">
+      <c r="C11" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工3</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="69">
         <v>2013010885</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="109">
         <v>90.9</v>
       </c>
-      <c r="F11" s="111">
-        <v>1</v>
-      </c>
-      <c r="G11" s="84">
+      <c r="F11" s="109">
+        <v>1</v>
+      </c>
+      <c r="G11" s="82">
         <v>3</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="111">
+      <c r="H11" s="82"/>
+      <c r="I11" s="109">
         <v>7</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="71" t="str">
+      <c r="C12" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工4</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="72">
         <v>2014010880</v>
       </c>
-      <c r="E12" s="110">
+      <c r="E12" s="108">
         <v>92.5</v>
       </c>
-      <c r="F12" s="111">
+      <c r="F12" s="109">
         <v>2</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="82">
         <v>3</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="111">
+      <c r="H12" s="82"/>
+      <c r="I12" s="109">
         <v>8</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="71" t="str">
+      <c r="C13" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工3</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="69">
         <v>2013010897</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="109">
         <v>90.2</v>
       </c>
-      <c r="F13" s="111">
+      <c r="F13" s="109">
         <v>3</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="82">
         <v>4</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="111">
+      <c r="H13" s="82"/>
+      <c r="I13" s="109">
         <v>6</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="71" t="str">
+      <c r="C14" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工4</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="72">
         <v>2014012377</v>
       </c>
-      <c r="E14" s="110">
+      <c r="E14" s="108">
         <v>92.4</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="109">
         <v>3</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="82">
         <v>4</v>
       </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="111">
+      <c r="H14" s="82"/>
+      <c r="I14" s="109">
         <v>8</v>
       </c>
       <c r="J14" s="6">
@@ -13203,516 +13477,516 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="71" t="str">
+      <c r="C15" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="69">
         <v>2015010812</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="108">
         <v>3.4</v>
       </c>
-      <c r="F15" s="111">
-        <v>1</v>
-      </c>
-      <c r="G15" s="84">
+      <c r="F15" s="109">
+        <v>1</v>
+      </c>
+      <c r="G15" s="82">
         <v>4</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="82">
         <v>3.42</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="109">
         <v>7</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="71" t="str">
+      <c r="C16" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="69">
         <v>2015010846</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="108">
         <v>3.4</v>
       </c>
-      <c r="F16" s="111">
+      <c r="F16" s="109">
         <v>4</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="82">
         <v>4</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="82">
         <v>3.38</v>
       </c>
-      <c r="I16" s="111">
+      <c r="I16" s="109">
         <v>7</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="71" t="str">
+      <c r="C17" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="69">
         <v>2015010817</v>
       </c>
-      <c r="E17" s="110">
+      <c r="E17" s="108">
         <v>3.4</v>
       </c>
-      <c r="F17" s="111">
-        <v>1</v>
-      </c>
-      <c r="G17" s="84">
+      <c r="F17" s="109">
+        <v>1</v>
+      </c>
+      <c r="G17" s="82">
         <v>4</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="82">
         <v>3.39</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="109">
         <v>7</v>
       </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="71" t="str">
+      <c r="C18" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="69">
         <v>2015010855</v>
       </c>
-      <c r="E18" s="111">
+      <c r="E18" s="109">
         <v>3.4</v>
       </c>
-      <c r="F18" s="111">
+      <c r="F18" s="109">
         <v>4</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="82">
         <v>4</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="82">
         <v>3.41</v>
       </c>
-      <c r="I18" s="111">
+      <c r="I18" s="109">
         <v>7</v>
       </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="71" t="str">
+      <c r="C19" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="69">
         <v>2015010844</v>
       </c>
-      <c r="E19" s="111">
+      <c r="E19" s="109">
         <v>3.4</v>
       </c>
-      <c r="F19" s="111">
+      <c r="F19" s="109">
         <v>4</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="82">
         <v>4</v>
       </c>
-      <c r="H19" s="112" t="s">
+      <c r="H19" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="111">
+      <c r="I19" s="109">
         <v>7</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="71" t="str">
+      <c r="C20" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="69">
         <v>2015010822</v>
       </c>
-      <c r="E20" s="111">
+      <c r="E20" s="109">
         <v>3.4</v>
       </c>
-      <c r="F20" s="111">
-        <v>1</v>
-      </c>
-      <c r="G20" s="84">
+      <c r="F20" s="109">
+        <v>1</v>
+      </c>
+      <c r="G20" s="82">
         <v>4</v>
       </c>
-      <c r="H20" s="112" t="s">
+      <c r="H20" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="111">
+      <c r="I20" s="109">
         <v>7</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="71" t="str">
+      <c r="C21" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="69">
         <v>2015010853</v>
       </c>
-      <c r="E21" s="111">
+      <c r="E21" s="109">
         <v>3.4</v>
       </c>
-      <c r="F21" s="111">
+      <c r="F21" s="109">
         <v>4</v>
       </c>
-      <c r="G21" s="84">
+      <c r="G21" s="82">
         <v>4</v>
       </c>
-      <c r="H21" s="112">
+      <c r="H21" s="110">
         <v>3.45</v>
       </c>
-      <c r="I21" s="111">
+      <c r="I21" s="109">
         <v>7</v>
       </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="71" t="str">
+      <c r="C22" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="69">
         <v>2015010843</v>
       </c>
-      <c r="E22" s="111">
+      <c r="E22" s="109">
         <v>3.4</v>
       </c>
-      <c r="F22" s="111">
+      <c r="F22" s="109">
         <v>4</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="82">
         <v>4</v>
       </c>
-      <c r="H22" s="112">
+      <c r="H22" s="110">
         <v>3.43</v>
       </c>
-      <c r="I22" s="111">
+      <c r="I22" s="109">
         <v>7</v>
       </c>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="71" t="str">
+      <c r="C23" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="69">
         <v>2015010839</v>
       </c>
-      <c r="E23" s="111">
+      <c r="E23" s="109">
         <v>3.4</v>
       </c>
-      <c r="F23" s="111">
+      <c r="F23" s="109">
         <v>4</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="82">
         <v>4</v>
       </c>
-      <c r="H23" s="112">
+      <c r="H23" s="110">
         <v>3.42</v>
       </c>
-      <c r="I23" s="111">
+      <c r="I23" s="109">
         <v>7</v>
       </c>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="71" t="str">
+      <c r="C24" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工5</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="69">
         <v>2015010840</v>
       </c>
-      <c r="E24" s="111">
+      <c r="E24" s="109">
         <v>3.4</v>
       </c>
-      <c r="F24" s="111">
+      <c r="F24" s="109">
         <v>4</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="82">
         <v>4</v>
       </c>
-      <c r="H24" s="112">
+      <c r="H24" s="110">
         <v>3.47</v>
       </c>
-      <c r="I24" s="111">
+      <c r="I24" s="109">
         <v>7</v>
       </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="71" t="str">
+      <c r="C25" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工3</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="69">
         <v>2013010915</v>
       </c>
-      <c r="E25" s="111">
+      <c r="E25" s="109">
         <v>89.9</v>
       </c>
-      <c r="F25" s="111">
+      <c r="F25" s="109">
         <v>4</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="82">
         <v>5</v>
       </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="111">
+      <c r="H25" s="82"/>
+      <c r="I25" s="109">
         <v>5</v>
       </c>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="71" t="str">
+      <c r="C26" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工4</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="72">
         <v>2014010906</v>
       </c>
-      <c r="E26" s="110">
+      <c r="E26" s="108">
         <v>92</v>
       </c>
-      <c r="F26" s="111">
+      <c r="F26" s="109">
         <v>2</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="82">
         <v>5</v>
       </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="111">
+      <c r="H26" s="82"/>
+      <c r="I26" s="109">
         <v>8</v>
       </c>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="71" t="str">
+      <c r="C27" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工3</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="69">
         <v>2013010862</v>
       </c>
-      <c r="E27" s="111">
+      <c r="E27" s="109">
         <v>89.7</v>
       </c>
-      <c r="F27" s="111">
+      <c r="F27" s="109">
         <v>2</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="82">
         <v>6</v>
       </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="111">
+      <c r="H27" s="82"/>
+      <c r="I27" s="109">
         <v>5</v>
       </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="71" t="str">
+      <c r="C28" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工4</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="72">
         <v>2014010907</v>
       </c>
-      <c r="E28" s="110">
+      <c r="E28" s="108">
         <v>91.8</v>
       </c>
-      <c r="F28" s="111">
+      <c r="F28" s="109">
         <v>3</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="82">
         <v>6</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="111">
+      <c r="H28" s="82"/>
+      <c r="I28" s="109">
         <v>7</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="71" t="str">
+      <c r="C29" s="69" t="str">
         <f t="shared" si="0"/>
         <v>工3</v>
       </c>
-      <c r="D29" s="71">
+      <c r="D29" s="69">
         <v>2013010864</v>
       </c>
-      <c r="E29" s="111">
+      <c r="E29" s="109">
         <v>89.7</v>
       </c>
-      <c r="F29" s="111">
+      <c r="F29" s="109">
         <v>2</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="82">
         <v>7</v>
       </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="111">
+      <c r="H29" s="82"/>
+      <c r="I29" s="109">
         <v>5</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="111">
+      <c r="D30" s="72"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109">
         <v>4</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="82">
         <v>7</v>
       </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="111">
+      <c r="H30" s="82"/>
+      <c r="I30" s="109">
         <v>7</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111">
+      <c r="D31" s="69"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109">
         <v>4</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="82">
         <v>8</v>
       </c>
-      <c r="H31" s="84"/>
-      <c r="I31" s="111">
+      <c r="H31" s="82"/>
+      <c r="I31" s="109">
         <v>5</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="111">
+      <c r="D32" s="72"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109">
         <v>5</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="82">
         <v>8</v>
       </c>
-      <c r="H32" s="84"/>
-      <c r="I32" s="111">
+      <c r="H32" s="82"/>
+      <c r="I32" s="109">
         <v>7</v>
       </c>
       <c r="J32" s="6"/>
@@ -13738,61 +14012,61 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71" t="s">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="111">
+      <c r="D34" s="72"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109">
         <v>6</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="82">
         <v>9</v>
       </c>
-      <c r="H34" s="84"/>
-      <c r="I34" s="111">
+      <c r="H34" s="82"/>
+      <c r="I34" s="109">
         <v>5</v>
       </c>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71" t="s">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111">
+      <c r="D35" s="69"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109">
         <v>5</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="82">
         <v>10</v>
       </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="111">
+      <c r="H35" s="82"/>
+      <c r="I35" s="109">
         <v>5</v>
       </c>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71" t="s">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="111">
+      <c r="D36" s="72"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="109">
         <v>7</v>
       </c>
-      <c r="G36" s="84">
+      <c r="G36" s="82">
         <v>10</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="111">
+      <c r="H36" s="82"/>
+      <c r="I36" s="109">
         <v>5</v>
       </c>
       <c r="J36" s="6"/>
@@ -13818,21 +14092,21 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71" t="s">
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="111">
+      <c r="D38" s="72"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="109">
         <v>4</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="82">
         <v>11</v>
       </c>
-      <c r="H38" s="84"/>
-      <c r="I38" s="111">
+      <c r="H38" s="82"/>
+      <c r="I38" s="109">
         <v>5</v>
       </c>
       <c r="J38" s="6"/>
@@ -15006,42 +15280,42 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:I29"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="62"/>
+    <col min="1" max="1" width="8.625" style="62"/>
     <col min="2" max="2" width="9" style="62" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="62" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="103" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="62" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="62" customWidth="1"/>
-    <col min="10" max="10" width="9" style="103" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" style="62" customWidth="1"/>
-    <col min="14" max="22" width="8.6640625" style="62"/>
-    <col min="23" max="23" width="18.33203125" style="62" customWidth="1"/>
-    <col min="24" max="16384" width="8.6640625" style="62"/>
+    <col min="3" max="3" width="13.375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="62" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="101" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="62" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="62" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="62" customWidth="1"/>
+    <col min="10" max="10" width="9" style="101" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.625" style="62" customWidth="1"/>
+    <col min="14" max="22" width="8.625" style="62"/>
+    <col min="23" max="23" width="18.375" style="62" customWidth="1"/>
+    <col min="24" max="16384" width="8.625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.399999999999999">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:22" ht="20.25">
+      <c r="A1" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="119"/>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="117"/>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" ht="31.15" customHeight="1">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="89" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -15084,340 +15358,342 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" s="96" customFormat="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83">
+    <row r="3" spans="1:22" s="94" customFormat="1">
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81">
         <v>29</v>
       </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="106">
+      <c r="K3" s="81"/>
+      <c r="L3" s="104">
         <v>10</v>
       </c>
       <c r="M3" s="60"/>
       <c r="N3" s="59"/>
     </row>
-    <row r="4" spans="1:22" s="96" customFormat="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83">
+    <row r="4" spans="1:22" s="94" customFormat="1">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81">
         <v>23</v>
       </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="106">
+      <c r="K4" s="81"/>
+      <c r="L4" s="104">
         <v>9</v>
       </c>
       <c r="M4" s="60"/>
     </row>
-    <row r="5" spans="1:22" s="96" customFormat="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83">
+    <row r="5" spans="1:22" s="94" customFormat="1">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81">
         <f>I5-F5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84">
+      <c r="K5" s="82"/>
+      <c r="L5" s="82">
         <f>IF(J5&gt;19,10,IF(J5&gt;14,8,IF(J5&gt;9,6,0)))</f>
         <v>0</v>
       </c>
       <c r="M5" s="60"/>
     </row>
-    <row r="6" spans="1:22" s="96" customFormat="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83">
+    <row r="6" spans="1:22" s="94" customFormat="1">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81">
         <f>I6-F6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84">
+      <c r="K6" s="82"/>
+      <c r="L6" s="82">
         <f>IF(J6&gt;19,10,IF(J6&gt;14,8,IF(J6&gt;9,6,0)))</f>
         <v>0</v>
       </c>
       <c r="M6" s="60"/>
     </row>
-    <row r="7" spans="1:22" s="96" customFormat="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83">
+    <row r="7" spans="1:22" s="94" customFormat="1">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81">
         <f>I7-F7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84">
+      <c r="K7" s="82"/>
+      <c r="L7" s="82">
         <f>IF(J7&gt;19,10,IF(J7&gt;14,8,IF(J7&gt;9,6,0)))</f>
         <v>0</v>
       </c>
       <c r="M7" s="60"/>
     </row>
-    <row r="8" spans="1:22" s="96" customFormat="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83">
+    <row r="8" spans="1:22" s="94" customFormat="1">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81">
         <v>18</v>
       </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="106">
+      <c r="K8" s="81"/>
+      <c r="L8" s="104">
         <v>8</v>
       </c>
       <c r="M8" s="60"/>
     </row>
-    <row r="9" spans="1:22" s="96" customFormat="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83">
+    <row r="9" spans="1:22" s="94" customFormat="1">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81">
         <v>13</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="106">
+      <c r="K9" s="81"/>
+      <c r="L9" s="104">
         <v>7</v>
       </c>
       <c r="M9" s="60"/>
     </row>
-    <row r="10" spans="1:22" s="96" customFormat="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83">
+    <row r="10" spans="1:22" s="94" customFormat="1">
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81">
         <f t="shared" ref="J10:J15" si="0">I10-F10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84">
+      <c r="K10" s="82"/>
+      <c r="L10" s="82">
         <f>IF(J10&gt;19,10,IF(J10&gt;14,8,IF(J10&gt;9,6,0)))</f>
         <v>0</v>
       </c>
       <c r="M10" s="60"/>
     </row>
-    <row r="11" spans="1:22" s="96" customFormat="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83">
+    <row r="11" spans="1:22" s="94" customFormat="1">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84">
+      <c r="K11" s="82"/>
+      <c r="L11" s="82">
         <f>IF(J11&gt;19,10,IF(J11&gt;14,8,IF(J11&gt;9,6,0)))</f>
         <v>0</v>
       </c>
       <c r="M11" s="60"/>
     </row>
-    <row r="12" spans="1:22" s="96" customFormat="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83">
+    <row r="12" spans="1:22" s="94" customFormat="1">
+      <c r="A12" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="102"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84">
+      <c r="K12" s="82"/>
+      <c r="L12" s="82">
         <f>IF(J12&gt;19,10,IF(J12&gt;14,8,IF(J12&gt;9,6,0)))</f>
         <v>0</v>
       </c>
       <c r="M12" s="60"/>
     </row>
-    <row r="13" spans="1:22" s="96" customFormat="1" ht="28.8">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83">
+    <row r="13" spans="1:22" s="94" customFormat="1" ht="27">
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="84" t="s">
+      <c r="K13" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="L13" s="106">
+      <c r="L13" s="104">
         <v>6</v>
       </c>
       <c r="M13" s="60"/>
     </row>
-    <row r="14" spans="1:22" s="96" customFormat="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83">
+    <row r="14" spans="1:22" s="94" customFormat="1">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="109"/>
-      <c r="L14" s="84">
+      <c r="K14" s="107"/>
+      <c r="L14" s="82">
         <f>IF(J14&gt;19,10,IF(J14&gt;14,8,IF(J14&gt;9,6,0)))</f>
         <v>0</v>
       </c>
       <c r="M14" s="60"/>
     </row>
-    <row r="15" spans="1:22" s="96" customFormat="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83">
+    <row r="15" spans="1:22" s="94" customFormat="1">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84">
+      <c r="K15" s="81"/>
+      <c r="L15" s="82">
         <f>IF(J15&gt;19,10,IF(J15&gt;14,8,IF(J15&gt;9,6,0)))</f>
         <v>0</v>
       </c>
       <c r="M15" s="60"/>
     </row>
-    <row r="16" spans="1:22" s="96" customFormat="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83">
+    <row r="16" spans="1:22" s="94" customFormat="1">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81">
         <v>10</v>
       </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="106">
+      <c r="K16" s="81"/>
+      <c r="L16" s="104">
         <v>6</v>
       </c>
       <c r="M16" s="60"/>
     </row>
-    <row r="17" spans="1:13" s="96" customFormat="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83">
+    <row r="17" spans="1:13" s="94" customFormat="1">
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81">
         <v>10</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="106">
+      <c r="K17" s="81"/>
+      <c r="L17" s="104">
         <v>6</v>
       </c>
       <c r="M17" s="60"/>
     </row>
-    <row r="18" spans="1:13" s="96" customFormat="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105">
+    <row r="18" spans="1:13" s="94" customFormat="1">
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103">
         <v>10</v>
       </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="106">
+      <c r="K18" s="81"/>
+      <c r="L18" s="104">
         <v>6</v>
       </c>
       <c r="M18" s="60"/>
     </row>
-    <row r="19" spans="1:13" s="96" customFormat="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
+    <row r="19" spans="1:13" s="94" customFormat="1">
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
       <c r="J19" s="59">
         <v>9</v>
       </c>
@@ -15427,16 +15703,16 @@
       </c>
       <c r="M19" s="60"/>
     </row>
-    <row r="20" spans="1:13" s="96" customFormat="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
+    <row r="20" spans="1:13" s="94" customFormat="1">
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
       <c r="J20" s="59">
         <v>9</v>
       </c>
@@ -15446,16 +15722,16 @@
       </c>
       <c r="M20" s="60"/>
     </row>
-    <row r="21" spans="1:13" s="96" customFormat="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
+    <row r="21" spans="1:13" s="94" customFormat="1">
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="59">
         <v>8</v>
       </c>
@@ -15465,16 +15741,16 @@
       </c>
       <c r="M21" s="60"/>
     </row>
-    <row r="22" spans="1:13" s="96" customFormat="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
+    <row r="22" spans="1:13" s="94" customFormat="1">
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
       <c r="J22" s="59">
         <v>4</v>
       </c>
@@ -15484,16 +15760,16 @@
       </c>
       <c r="M22" s="60"/>
     </row>
-    <row r="23" spans="1:13" s="96" customFormat="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
+    <row r="23" spans="1:13" s="94" customFormat="1">
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
       <c r="J23" s="59">
         <v>3</v>
       </c>
@@ -15503,37 +15779,37 @@
       </c>
       <c r="M23" s="60"/>
     </row>
-    <row r="24" spans="1:13" s="96" customFormat="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
+    <row r="24" spans="1:13" s="94" customFormat="1">
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
-      <c r="G24" s="94"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="59"/>
       <c r="I24" s="59"/>
       <c r="J24" s="59">
         <f>I24-F24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="95"/>
+      <c r="K24" s="93"/>
       <c r="L24" s="21">
         <f>IF(J24&gt;19,10,IF(J24&gt;14,8,IF(J24&gt;9,6,0)))</f>
         <v>0</v>
       </c>
       <c r="M24" s="60"/>
     </row>
-    <row r="25" spans="1:13" s="96" customFormat="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
+    <row r="25" spans="1:13" s="94" customFormat="1">
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="99"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="97"/>
       <c r="J25" s="59">
         <f>I25-F25</f>
         <v>0</v>
@@ -15545,16 +15821,16 @@
       </c>
       <c r="M25" s="60"/>
     </row>
-    <row r="26" spans="1:13" s="96" customFormat="1">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
+    <row r="26" spans="1:13" s="94" customFormat="1">
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="99"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="97"/>
       <c r="J26" s="59">
         <f>I26-F26</f>
         <v>0</v>
@@ -15566,14 +15842,14 @@
       </c>
       <c r="M26" s="60"/>
     </row>
-    <row r="27" spans="1:13" s="96" customFormat="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+    <row r="27" spans="1:13" s="94" customFormat="1" ht="14.25">
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="94"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="92"/>
       <c r="H27" s="59"/>
       <c r="I27" s="59"/>
       <c r="J27" s="59">
@@ -15587,13 +15863,13 @@
       </c>
       <c r="M27" s="60"/>
     </row>
-    <row r="28" spans="1:13" s="96" customFormat="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
+    <row r="28" spans="1:13" s="94" customFormat="1" ht="14.25">
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="98"/>
+      <c r="F28" s="96"/>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
@@ -15602,13 +15878,13 @@
       <c r="L28" s="60"/>
       <c r="M28" s="60"/>
     </row>
-    <row r="29" spans="1:13" s="96" customFormat="1">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
+    <row r="29" spans="1:13" s="94" customFormat="1" ht="14.25">
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
-      <c r="F29" s="98"/>
+      <c r="F29" s="96"/>
       <c r="G29" s="59"/>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
@@ -15617,11 +15893,11 @@
       <c r="L29" s="60"/>
       <c r="M29" s="60"/>
     </row>
-    <row r="30" spans="1:13" s="96" customFormat="1">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
+    <row r="30" spans="1:13" s="94" customFormat="1">
+      <c r="A30" s="98"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="61"/>
       <c r="F30" s="61"/>
       <c r="G30" s="61"/>
@@ -15632,11 +15908,11 @@
       <c r="L30" s="61"/>
       <c r="M30" s="61"/>
     </row>
-    <row r="31" spans="1:13" s="96" customFormat="1">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
+    <row r="31" spans="1:13" s="94" customFormat="1">
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
       <c r="G31" s="61"/>
@@ -15647,11 +15923,11 @@
       <c r="L31" s="61"/>
       <c r="M31" s="61"/>
     </row>
-    <row r="32" spans="1:13" s="96" customFormat="1">
-      <c r="A32" s="100"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
+    <row r="32" spans="1:13" s="94" customFormat="1">
+      <c r="A32" s="98"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
       <c r="G32" s="61"/>
@@ -15662,11 +15938,11 @@
       <c r="L32" s="61"/>
       <c r="M32" s="61"/>
     </row>
-    <row r="33" spans="1:13" s="96" customFormat="1">
-      <c r="A33" s="100"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
+    <row r="33" spans="1:13" s="94" customFormat="1">
+      <c r="A33" s="98"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61"/>
       <c r="G33" s="61"/>
@@ -15677,11 +15953,11 @@
       <c r="L33" s="61"/>
       <c r="M33" s="61"/>
     </row>
-    <row r="34" spans="1:13" s="96" customFormat="1">
-      <c r="A34" s="100"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
+    <row r="34" spans="1:13" s="94" customFormat="1">
+      <c r="A34" s="98"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="61"/>
       <c r="F34" s="61"/>
       <c r="G34" s="61"/>
@@ -15692,11 +15968,11 @@
       <c r="L34" s="61"/>
       <c r="M34" s="61"/>
     </row>
-    <row r="35" spans="1:13" s="96" customFormat="1">
-      <c r="A35" s="100"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
+    <row r="35" spans="1:13" s="94" customFormat="1">
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="61"/>
       <c r="F35" s="61"/>
       <c r="G35" s="61"/>
@@ -15707,11 +15983,11 @@
       <c r="L35" s="61"/>
       <c r="M35" s="61"/>
     </row>
-    <row r="36" spans="1:13" s="96" customFormat="1">
-      <c r="A36" s="100"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
+    <row r="36" spans="1:13" s="94" customFormat="1">
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
       <c r="E36" s="61"/>
       <c r="F36" s="61"/>
       <c r="G36" s="61"/>
@@ -15722,11 +15998,11 @@
       <c r="L36" s="61"/>
       <c r="M36" s="61"/>
     </row>
-    <row r="37" spans="1:13" s="96" customFormat="1">
-      <c r="A37" s="100"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
+    <row r="37" spans="1:13" s="94" customFormat="1">
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="61"/>
       <c r="F37" s="61"/>
       <c r="G37" s="61"/>
@@ -15737,10 +16013,10 @@
       <c r="L37" s="61"/>
       <c r="M37" s="61"/>
     </row>
-    <row r="38" spans="1:13" s="96" customFormat="1">
-      <c r="A38" s="100"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
+    <row r="38" spans="1:13" s="94" customFormat="1">
+      <c r="A38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
@@ -15752,10 +16028,10 @@
       <c r="L38" s="61"/>
       <c r="M38" s="61"/>
     </row>
-    <row r="39" spans="1:13" s="96" customFormat="1">
-      <c r="A39" s="100"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
+    <row r="39" spans="1:13" s="94" customFormat="1">
+      <c r="A39" s="98"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
       <c r="F39" s="61"/>
@@ -15767,10 +16043,10 @@
       <c r="L39" s="61"/>
       <c r="M39" s="61"/>
     </row>
-    <row r="40" spans="1:13" s="96" customFormat="1">
-      <c r="A40" s="100"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
+    <row r="40" spans="1:13" s="94" customFormat="1">
+      <c r="A40" s="98"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="61"/>
       <c r="E40" s="61"/>
       <c r="F40" s="61"/>
@@ -15782,10 +16058,10 @@
       <c r="L40" s="61"/>
       <c r="M40" s="61"/>
     </row>
-    <row r="41" spans="1:13" s="96" customFormat="1">
-      <c r="A41" s="100"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
+    <row r="41" spans="1:13" s="94" customFormat="1">
+      <c r="A41" s="98"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
       <c r="F41" s="61"/>
@@ -15797,10 +16073,10 @@
       <c r="L41" s="61"/>
       <c r="M41" s="61"/>
     </row>
-    <row r="42" spans="1:13" s="96" customFormat="1">
-      <c r="A42" s="100"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
+    <row r="42" spans="1:13" s="94" customFormat="1">
+      <c r="A42" s="98"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
       <c r="F42" s="61"/>
@@ -15812,10 +16088,10 @@
       <c r="L42" s="61"/>
       <c r="M42" s="61"/>
     </row>
-    <row r="43" spans="1:13" s="96" customFormat="1">
-      <c r="A43" s="100"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
+    <row r="43" spans="1:13" s="94" customFormat="1">
+      <c r="A43" s="98"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="61"/>
       <c r="E43" s="61"/>
       <c r="F43" s="61"/>
@@ -15827,10 +16103,10 @@
       <c r="L43" s="61"/>
       <c r="M43" s="61"/>
     </row>
-    <row r="44" spans="1:13" s="96" customFormat="1">
-      <c r="A44" s="100"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
+    <row r="44" spans="1:13" s="94" customFormat="1">
+      <c r="A44" s="98"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
       <c r="F44" s="61"/>
@@ -15842,10 +16118,10 @@
       <c r="L44" s="61"/>
       <c r="M44" s="61"/>
     </row>
-    <row r="45" spans="1:13" s="96" customFormat="1">
-      <c r="A45" s="100"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
+    <row r="45" spans="1:13" s="94" customFormat="1">
+      <c r="A45" s="98"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="61"/>
       <c r="E45" s="61"/>
       <c r="F45" s="61"/>
@@ -15857,10 +16133,10 @@
       <c r="L45" s="61"/>
       <c r="M45" s="61"/>
     </row>
-    <row r="46" spans="1:13" s="96" customFormat="1">
-      <c r="A46" s="100"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
+    <row r="46" spans="1:13" s="94" customFormat="1">
+      <c r="A46" s="98"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="61"/>
       <c r="E46" s="61"/>
       <c r="F46" s="61"/>
@@ -15872,10 +16148,10 @@
       <c r="L46" s="61"/>
       <c r="M46" s="61"/>
     </row>
-    <row r="47" spans="1:13" s="96" customFormat="1">
-      <c r="A47" s="100"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
+    <row r="47" spans="1:13" s="94" customFormat="1">
+      <c r="A47" s="98"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
       <c r="F47" s="61"/>
@@ -15887,10 +16163,10 @@
       <c r="L47" s="61"/>
       <c r="M47" s="61"/>
     </row>
-    <row r="48" spans="1:13" s="96" customFormat="1">
-      <c r="A48" s="100"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
+    <row r="48" spans="1:13" s="94" customFormat="1">
+      <c r="A48" s="98"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
       <c r="F48" s="61"/>
@@ -15902,10 +16178,10 @@
       <c r="L48" s="61"/>
       <c r="M48" s="61"/>
     </row>
-    <row r="49" spans="1:13" s="96" customFormat="1">
-      <c r="A49" s="100"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="101"/>
+    <row r="49" spans="1:13" s="94" customFormat="1">
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="61"/>
       <c r="E49" s="61"/>
       <c r="F49" s="61"/>
@@ -15917,10 +16193,10 @@
       <c r="L49" s="61"/>
       <c r="M49" s="61"/>
     </row>
-    <row r="50" spans="1:13" s="96" customFormat="1">
-      <c r="A50" s="100"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
+    <row r="50" spans="1:13" s="94" customFormat="1">
+      <c r="A50" s="98"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
       <c r="F50" s="61"/>
@@ -15932,10 +16208,10 @@
       <c r="L50" s="61"/>
       <c r="M50" s="61"/>
     </row>
-    <row r="51" spans="1:13" s="96" customFormat="1">
-      <c r="A51" s="100"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
+    <row r="51" spans="1:13" s="94" customFormat="1">
+      <c r="A51" s="98"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
       <c r="D51" s="61"/>
       <c r="E51" s="61"/>
       <c r="F51" s="61"/>
@@ -15947,10 +16223,10 @@
       <c r="L51" s="61"/>
       <c r="M51" s="61"/>
     </row>
-    <row r="52" spans="1:13" s="96" customFormat="1">
-      <c r="A52" s="100"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
+    <row r="52" spans="1:13" s="94" customFormat="1">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
       <c r="F52" s="61"/>
@@ -15962,10 +16238,10 @@
       <c r="L52" s="61"/>
       <c r="M52" s="61"/>
     </row>
-    <row r="53" spans="1:13" s="96" customFormat="1">
-      <c r="A53" s="100"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="101"/>
+    <row r="53" spans="1:13" s="94" customFormat="1">
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
       <c r="F53" s="61"/>
@@ -15977,10 +16253,10 @@
       <c r="L53" s="61"/>
       <c r="M53" s="61"/>
     </row>
-    <row r="54" spans="1:13" s="96" customFormat="1">
-      <c r="A54" s="100"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="101"/>
+    <row r="54" spans="1:13" s="94" customFormat="1">
+      <c r="A54" s="98"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
       <c r="D54" s="61"/>
       <c r="E54" s="61"/>
       <c r="F54" s="61"/>
@@ -15992,10 +16268,10 @@
       <c r="L54" s="61"/>
       <c r="M54" s="61"/>
     </row>
-    <row r="55" spans="1:13" s="96" customFormat="1">
-      <c r="A55" s="100"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
+    <row r="55" spans="1:13" s="94" customFormat="1">
+      <c r="A55" s="98"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
       <c r="D55" s="61"/>
       <c r="E55" s="61"/>
       <c r="F55" s="61"/>
@@ -16007,10 +16283,10 @@
       <c r="L55" s="61"/>
       <c r="M55" s="61"/>
     </row>
-    <row r="56" spans="1:13" s="96" customFormat="1">
-      <c r="A56" s="100"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
+    <row r="56" spans="1:13" s="94" customFormat="1">
+      <c r="A56" s="98"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
       <c r="D56" s="61"/>
       <c r="E56" s="61"/>
       <c r="F56" s="61"/>
@@ -16022,10 +16298,10 @@
       <c r="L56" s="61"/>
       <c r="M56" s="61"/>
     </row>
-    <row r="57" spans="1:13" s="96" customFormat="1">
-      <c r="A57" s="100"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
+    <row r="57" spans="1:13" s="94" customFormat="1">
+      <c r="A57" s="98"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
       <c r="D57" s="61"/>
       <c r="E57" s="61"/>
       <c r="F57" s="61"/>
@@ -16037,10 +16313,10 @@
       <c r="L57" s="61"/>
       <c r="M57" s="61"/>
     </row>
-    <row r="58" spans="1:13" s="96" customFormat="1">
-      <c r="A58" s="100"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
+    <row r="58" spans="1:13" s="94" customFormat="1">
+      <c r="A58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
       <c r="D58" s="61"/>
       <c r="E58" s="61"/>
       <c r="F58" s="61"/>
@@ -16052,10 +16328,10 @@
       <c r="L58" s="61"/>
       <c r="M58" s="61"/>
     </row>
-    <row r="59" spans="1:13" s="96" customFormat="1">
-      <c r="A59" s="100"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
+    <row r="59" spans="1:13" s="94" customFormat="1">
+      <c r="A59" s="98"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="61"/>
       <c r="E59" s="61"/>
       <c r="F59" s="61"/>
@@ -16067,10 +16343,10 @@
       <c r="L59" s="61"/>
       <c r="M59" s="61"/>
     </row>
-    <row r="60" spans="1:13" s="96" customFormat="1">
-      <c r="A60" s="100"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="101"/>
+    <row r="60" spans="1:13" s="94" customFormat="1">
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="61"/>
       <c r="E60" s="61"/>
       <c r="F60" s="61"/>
@@ -16082,10 +16358,10 @@
       <c r="L60" s="61"/>
       <c r="M60" s="61"/>
     </row>
-    <row r="61" spans="1:13" s="96" customFormat="1">
-      <c r="A61" s="100"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
+    <row r="61" spans="1:13" s="94" customFormat="1">
+      <c r="A61" s="98"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
       <c r="D61" s="61"/>
       <c r="E61" s="61"/>
       <c r="F61" s="61"/>
@@ -16097,10 +16373,10 @@
       <c r="L61" s="61"/>
       <c r="M61" s="61"/>
     </row>
-    <row r="62" spans="1:13" s="96" customFormat="1">
-      <c r="A62" s="100"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="101"/>
+    <row r="62" spans="1:13" s="94" customFormat="1">
+      <c r="A62" s="98"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
       <c r="D62" s="61"/>
       <c r="E62" s="61"/>
       <c r="F62" s="61"/>
@@ -16112,10 +16388,10 @@
       <c r="L62" s="61"/>
       <c r="M62" s="61"/>
     </row>
-    <row r="63" spans="1:13" s="96" customFormat="1">
-      <c r="A63" s="100"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="101"/>
+    <row r="63" spans="1:13" s="94" customFormat="1">
+      <c r="A63" s="98"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
       <c r="D63" s="61"/>
       <c r="E63" s="61"/>
       <c r="F63" s="61"/>
@@ -16127,10 +16403,10 @@
       <c r="L63" s="61"/>
       <c r="M63" s="61"/>
     </row>
-    <row r="64" spans="1:13" s="96" customFormat="1">
-      <c r="A64" s="100"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
+    <row r="64" spans="1:13" s="94" customFormat="1">
+      <c r="A64" s="98"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
       <c r="D64" s="61"/>
       <c r="E64" s="61"/>
       <c r="F64" s="61"/>
@@ -16151,6 +16427,18 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C18:C21 A18:A21">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C23 A22:A23">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -16162,103 +16450,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C23 A22:A23">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A3 C3">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4 C4">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4 C4">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5 A5">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5 A5">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6 A6">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6 A6">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -16266,194 +16554,182 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8 C8">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8 C8">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 A9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9 A9">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10 C10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10 C10">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11 C11">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11 C11">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12 C12">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13 A13">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13 A13">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14 A14">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14 A14">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15 C15">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15 C15">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="0"/>
         <color theme="0"/>
@@ -16461,50 +16737,62 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16 A16">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17 A17">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17 A17">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A29">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A29">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21 C18 C24">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -16520,21 +16808,21 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21 C18 C24">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22 C19">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -16542,21 +16830,21 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22 C19">
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 C20">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -16564,21 +16852,21 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23 C20">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -16595,26 +16883,26 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="86.5546875" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="86.5" customWidth="1"/>
+    <col min="5" max="6" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:15" ht="20.25">
+      <c r="A1" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="43.2">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="27">
       <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
@@ -16644,133 +16932,133 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="41" customFormat="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="88">
+      <c r="C3" s="78"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86">
         <v>9</v>
       </c>
       <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:15" s="41" customFormat="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88">
+      <c r="C4" s="78"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86">
         <v>9</v>
       </c>
       <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88">
+      <c r="C5" s="78"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86">
         <v>8</v>
       </c>
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88">
+      <c r="C6" s="78"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86">
         <v>8</v>
       </c>
       <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88">
+      <c r="C7" s="78"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86">
         <v>7</v>
       </c>
       <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="83">
+      <c r="C8" s="78"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="81">
         <v>7</v>
       </c>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="83">
+      <c r="C9" s="86"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="81">
         <v>7</v>
       </c>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="83">
+      <c r="C10" s="86"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="81">
         <v>7</v>
       </c>
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="83">
+      <c r="C11" s="78"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="81">
         <v>6</v>
       </c>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="83">
+      <c r="C12" s="86"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="81">
         <v>6</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="83">
+      <c r="C13" s="86"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="81">
         <v>6</v>
       </c>
       <c r="F13" s="22"/>
@@ -16781,7 +17069,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="38"/>
-      <c r="D14" s="86"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="17">
         <v>4</v>
       </c>
@@ -17012,26 +17300,26 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="93.77734375" style="62" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="55" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="93.75" style="62" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="55" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:15" ht="20.25">
+      <c r="A1" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="43.2">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="27">
       <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
@@ -17061,121 +17349,121 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82">
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80">
         <v>10</v>
       </c>
       <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="82">
+      <c r="C4" s="78"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="80">
         <v>8</v>
       </c>
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="82">
+      <c r="C5" s="78"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="80">
         <v>6</v>
       </c>
       <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="82">
+      <c r="C6" s="75"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="80">
         <v>6</v>
       </c>
       <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="82">
+      <c r="C7" s="75"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="80">
         <v>6</v>
       </c>
       <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="82">
+      <c r="C8" s="78"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="80">
         <v>4</v>
       </c>
       <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="82">
+      <c r="C9" s="75"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="80">
         <v>4</v>
       </c>
       <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:15" s="41" customFormat="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="82">
+      <c r="C10" s="75"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="80">
         <v>3</v>
       </c>
       <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:15" s="41" customFormat="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="82">
+      <c r="C11" s="75"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="80">
         <v>3</v>
       </c>
       <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:15" s="41" customFormat="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="82">
+      <c r="C12" s="75"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="80">
         <v>3</v>
       </c>
       <c r="F12" s="52"/>
@@ -17879,27 +18167,27 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="C3:D41"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="84.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="84.625" style="32" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:15" ht="20.25">
+      <c r="A1" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="43.2">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="27">
       <c r="A2" s="3" t="s">
         <v>100</v>
       </c>
@@ -17929,313 +18217,313 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71">
         <v>10</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="73">
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="71">
         <v>8</v>
       </c>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="73">
+      <c r="C5" s="69"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="71">
         <v>8</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="73">
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="71">
         <v>7</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="73">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="71">
         <v>6</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="73">
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="71">
         <v>6</v>
       </c>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="73">
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="71">
         <v>6</v>
       </c>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="73">
+      <c r="C10" s="69"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="71">
         <v>6</v>
       </c>
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="73">
+      <c r="C11" s="69"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="71">
         <v>6</v>
       </c>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="73">
+      <c r="C12" s="75"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="71">
         <v>6</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="73">
+      <c r="C13" s="69"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="71">
         <v>6</v>
       </c>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="73">
+      <c r="C14" s="69"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="71">
         <v>6</v>
       </c>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="73">
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="71">
         <v>5</v>
       </c>
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="73">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="71">
         <v>5</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="73">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="71">
         <v>5</v>
       </c>
       <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="73">
+      <c r="C18" s="69"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="71">
         <v>5</v>
       </c>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="73">
+      <c r="C19" s="69"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="71">
         <v>5</v>
       </c>
       <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="73">
+      <c r="C20" s="75"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="71">
         <v>5</v>
       </c>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="73">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="71">
         <v>4</v>
       </c>
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="73">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="71">
         <v>4</v>
       </c>
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="73">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="71">
         <v>4</v>
       </c>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="73">
+      <c r="C24" s="69"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="71">
         <v>4</v>
       </c>
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="73">
+      <c r="C25" s="69"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="71">
         <v>4</v>
       </c>
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="73">
+      <c r="C26" s="69"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="71">
         <v>4</v>
       </c>
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="73">
+      <c r="C27" s="69"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="71">
         <v>4</v>
       </c>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="73">
+      <c r="C28" s="69"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="71">
         <v>4</v>
       </c>
       <c r="F28" s="22"/>
@@ -18366,7 +18654,7 @@
         <v>72</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="70"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="22">
         <v>1</v>
       </c>
@@ -18378,7 +18666,7 @@
         <v>79</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="69"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="22">
         <v>1</v>
       </c>
@@ -18390,7 +18678,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="70"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="22">
         <v>1</v>
       </c>
@@ -19367,26 +19655,26 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D11"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="80.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="80.5" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:15" ht="20.25">
+      <c r="A1" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="43.2">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="27">
       <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
@@ -19416,109 +19704,109 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="73">
+      <c r="C3" s="72"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="71">
         <v>10</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="73">
+      <c r="C4" s="72"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="71">
         <v>10</v>
       </c>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="73">
+      <c r="C5" s="72"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="71">
         <v>8</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="73">
+      <c r="C6" s="72"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="71">
         <v>8</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="73">
+      <c r="C7" s="72"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="71">
         <v>8</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="73">
+      <c r="C8" s="75"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="71">
         <v>8</v>
       </c>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="73">
+      <c r="C9" s="72"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="71">
         <v>6</v>
       </c>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="73">
+      <c r="C10" s="75"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="71">
         <v>6</v>
       </c>
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="73">
+      <c r="C11" s="75"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="71">
         <v>4</v>
       </c>
       <c r="F11" s="22"/>
@@ -20194,26 +20482,26 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="83.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="83.25" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:15" ht="20.25">
+      <c r="A1" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="43.2">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="27">
       <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
@@ -20243,97 +20531,97 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="73">
+      <c r="C3" s="75"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="71">
         <v>8</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="73">
+      <c r="C4" s="69"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="71">
         <v>6</v>
       </c>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="73">
+      <c r="C5" s="69"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="71">
         <v>6</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="73">
+      <c r="C6" s="69"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="71">
         <v>6</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="73">
+      <c r="C7" s="69"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="71">
         <v>6</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="73">
+      <c r="C8" s="75"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="71">
         <v>6</v>
       </c>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="73">
+      <c r="C9" s="75"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="71">
         <v>6</v>
       </c>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="73">
+      <c r="C10" s="75"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="71">
         <v>6</v>
       </c>
       <c r="F10" s="22"/>
